--- a/Transcripts/Transcript.xlsx
+++ b/Transcripts/Transcript.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JWHS" sheetId="1" r:id="rId1"/>
     <sheet name="LFCC" sheetId="2" r:id="rId2"/>
     <sheet name="AP" sheetId="3" r:id="rId3"/>
-    <sheet name="UVA" sheetId="4" r:id="rId4"/>
+    <sheet name="UVA Undergraduate" sheetId="4" r:id="rId4"/>
+    <sheet name="UVA Graduate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="226">
   <si>
     <t>Frederick County Middle School</t>
   </si>
@@ -673,12 +674,39 @@
   </si>
   <si>
     <t>Financial Mathematics</t>
+  </si>
+  <si>
+    <t>Fall 2017</t>
+  </si>
+  <si>
+    <t>Computer Science Perspectives</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Spec Top: Computer Science</t>
+  </si>
+  <si>
+    <t>IoT Sensors and Systems</t>
+  </si>
+  <si>
+    <t>Software Logic</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>Spring 2018</t>
+  </si>
+  <si>
+    <t>Fall 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,7 +745,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -938,11 +966,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,6 +1023,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,11 +1082,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,41 +1136,14 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1425,15 +1481,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -1531,15 +1587,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.7" x14ac:dyDescent="0.6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
@@ -2021,38 +2077,38 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33">
+      <c r="A27" s="35">
         <v>11</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="36">
         <v>1</v>
       </c>
       <c r="E27" s="6">
         <v>496</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="6">
         <v>584</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
@@ -2415,16 +2471,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="27">
         <f>SUM(D1:D43)</f>
         <v>32</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="27">
         <f>AVERAGEIFS(E1:E43,E1:E43,"&lt;&gt;**")</f>
         <v>548.79999999999995</v>
       </c>
@@ -2437,11 +2493,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="8" t="s">
         <v>16</v>
       </c>
@@ -2476,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2500,17 +2556,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -3582,36 +3638,36 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27">
         <f>SUM(G1:G38)</f>
         <v>89</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="38">
         <f>((1*SUMIFS(I1:I38,G1:G38,1))+(3*SUMIFS(I1:I38,G1:G38,3))+(4*SUMIFS(I1:I38,G1:G38,4))+(5*SUMIFS(I1:I38,G1:G38,5)))/(SUMIFS(G1:G38,I1:I38,"&lt;&gt;**"))</f>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
@@ -3633,7 +3689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3651,10 +3707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -3721,17 +3777,17 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="38">
         <f>AVERAGEIFS(B1:B9,A1:A9,"&lt;&gt;Calculus BC: AB Subscore")</f>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
@@ -3751,13 +3807,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -3775,17 +3831,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="14.7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -4519,47 +4575,47 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="36">
         <v>1500</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="53">
         <v>13883</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="36">
         <v>15</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="36">
         <v>1</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="37">
         <f>IF(H30="A+",4,IF(H30="A",4,IF(H30="A-",3.7,IF(H30="B+",3.3,IF(H30="B",3,IF(H30="B-",2.7,IF(H30="C+",2.3,IF(H30="C",2,IF(H30="C-",1.7,IF(H30="D+",1.3,IF(H30="D",1,IF(H30="D-",0.7,IF(H30="F",0,"**")))))))))))))</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11" t="s">
@@ -4592,59 +4648,59 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="36">
         <v>1501</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="36">
         <v>14659</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="36">
         <v>1</v>
       </c>
-      <c r="G33" s="34">
-        <v>3</v>
-      </c>
-      <c r="H33" s="34" t="s">
+      <c r="G33" s="36">
+        <v>3</v>
+      </c>
+      <c r="H33" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="37">
         <f>IF(H33="A+",4,IF(H33="A",4,IF(H33="A-",3.7,IF(H33="B+",3.3,IF(H33="B",3,IF(H33="B-",2.7,IF(H33="C+",2.3,IF(H33="C",2,IF(H33="C-",1.7,IF(H33="D+",1.3,IF(H33="D",1,IF(H33="D-",0.7,IF(H33="F",0,"**")))))))))))))</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="36">
         <v>2315</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E35" s="12">
@@ -4653,43 +4709,43 @@
       <c r="F35" s="10">
         <v>100</v>
       </c>
-      <c r="G35" s="34">
-        <v>4</v>
-      </c>
-      <c r="H35" s="34" t="s">
+      <c r="G35" s="36">
+        <v>4</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="37">
         <f>IF(H35="A+",4,IF(H35="A",4,IF(H35="A-",3.7,IF(H35="B+",3.3,IF(H35="B",3,IF(H35="B-",2.7,IF(H35="C+",2.3,IF(H35="C",2,IF(H35="C-",1.7,IF(H35="D+",1.3,IF(H35="D",1,IF(H35="D-",0.7,IF(H35="F",0,"**")))))))))))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="12">
         <v>15485</v>
       </c>
       <c r="F36" s="10">
         <v>101</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="36">
         <v>3250</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="36" t="s">
         <v>181</v>
       </c>
       <c r="E37" s="12">
@@ -4698,31 +4754,31 @@
       <c r="F37" s="10">
         <v>200</v>
       </c>
-      <c r="G37" s="34">
-        <v>4</v>
-      </c>
-      <c r="H37" s="34" t="s">
+      <c r="G37" s="36">
+        <v>4</v>
+      </c>
+      <c r="H37" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="37">
         <f>IF(H37="A+",4,IF(H37="A",4,IF(H37="A-",3.7,IF(H37="B+",3.3,IF(H37="B",3,IF(H37="B-",2.7,IF(H37="C+",2.3,IF(H37="C",2,IF(H37="C-",1.7,IF(H37="D+",1.3,IF(H37="D",1,IF(H37="D-",0.7,IF(H37="F",0,"**")))))))))))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="12">
         <v>10933</v>
       </c>
       <c r="F38" s="10">
         <v>201</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
@@ -4755,16 +4811,16 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="36">
         <v>2110</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="36" t="s">
         <v>183</v>
       </c>
       <c r="E40" s="12">
@@ -4773,43 +4829,43 @@
       <c r="F40" s="10">
         <v>1</v>
       </c>
-      <c r="G40" s="34">
-        <v>3</v>
-      </c>
-      <c r="H40" s="34" t="s">
+      <c r="G40" s="36">
+        <v>3</v>
+      </c>
+      <c r="H40" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="37">
         <f>IF(H40="A+",4,IF(H40="A",4,IF(H40="A-",3.7,IF(H40="B+",3.3,IF(H40="B",3,IF(H40="B-",2.7,IF(H40="C+",2.3,IF(H40="C",2,IF(H40="C-",1.7,IF(H40="D+",1.3,IF(H40="D",1,IF(H40="D-",0.7,IF(H40="F",0,"**")))))))))))))</f>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="49"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="12">
         <v>17468</v>
       </c>
       <c r="F41" s="10">
         <v>101</v>
       </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="36">
         <v>3000</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="12">
@@ -4818,31 +4874,31 @@
       <c r="F42" s="10">
         <v>100</v>
       </c>
-      <c r="G42" s="34">
-        <v>4</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="G42" s="36">
+        <v>4</v>
+      </c>
+      <c r="H42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="37">
         <f>IF(H42="A+",4,IF(H42="A",4,IF(H42="A-",3.7,IF(H42="B+",3.3,IF(H42="B",3,IF(H42="B-",2.7,IF(H42="C+",2.3,IF(H42="C",2,IF(H42="C-",1.7,IF(H42="D+",1.3,IF(H42="D",1,IF(H42="D-",0.7,IF(H42="F",0,"**")))))))))))))</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="49"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="12">
         <v>12644</v>
       </c>
       <c r="F43" s="10">
         <v>101</v>
       </c>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
@@ -4965,16 +5021,16 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="47">
         <v>2150</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="45" t="s">
         <v>197</v>
       </c>
       <c r="E48" s="6">
@@ -4983,31 +5039,31 @@
       <c r="F48" s="6">
         <v>2</v>
       </c>
-      <c r="G48" s="45">
-        <v>3</v>
-      </c>
-      <c r="H48" s="47" t="s">
+      <c r="G48" s="47">
+        <v>3</v>
+      </c>
+      <c r="H48" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I48" s="54">
+      <c r="I48" s="40">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="51"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="48"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="6">
         <v>18031</v>
       </c>
       <c r="F49" s="6">
         <v>107</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="55"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5" t="s">
@@ -5160,47 +5216,47 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="51">
         <v>5500</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="51">
         <v>10121</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="51">
         <v>1</v>
       </c>
-      <c r="G55" s="38">
-        <v>3</v>
-      </c>
-      <c r="H55" s="38" t="s">
+      <c r="G55" s="51">
+        <v>3</v>
+      </c>
+      <c r="H55" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="54">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="53"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="41"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="55"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13" t="s">
@@ -5233,16 +5289,16 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="51">
         <v>3330</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="51" t="s">
         <v>209</v>
       </c>
       <c r="E58" s="6">
@@ -5251,31 +5307,31 @@
       <c r="F58" s="6">
         <v>2</v>
       </c>
-      <c r="G58" s="38">
-        <v>3</v>
-      </c>
-      <c r="H58" s="38" t="s">
+      <c r="G58" s="51">
+        <v>3</v>
+      </c>
+      <c r="H58" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="40">
+      <c r="I58" s="54">
         <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="43"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="6">
         <v>20523</v>
       </c>
       <c r="F59" s="6">
         <v>104</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="41"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="55"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5" t="s">
@@ -5428,63 +5484,74 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="25">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="27">
         <f>SUM(G1:G64)</f>
         <v>141</v>
       </c>
-      <c r="H65" s="25" t="str">
+      <c r="H65" s="27" t="str">
         <f>IF(I65&gt;3.7,"A+",IF(I65&gt;3.5,"A",IF(I65&gt;3.3,"A-",IF(I65&gt;3,"B+",IF(I65&gt;2.7,"B",IF(I65&gt;2.3,"B-",IF(I65&gt;2,"C+",IF(I65&gt;1.7,"C",IF(I65&gt;1.3,"C-",IF(I65&gt;1,"D+",IF(I65&gt;0.7,"D",IF(I65&gt;0.3,"D-","F"))))))))))))</f>
         <v>A-</v>
       </c>
-      <c r="I65" s="36">
+      <c r="I65" s="38">
         <f>((1*SUMIFS(I1:I64,G1:G64,1))+(3*SUMIFS(I1:I64,G1:G64,3))+(4*SUMIFS(I1:I64,G1:G64,4)))/(SUMIFS(G1:G64,I1:I64,"&lt;&gt;**"))</f>
         <v>3.4636363636363634</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="37"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A65:F66"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="G65:G66"/>
@@ -5501,39 +5568,28 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A65:F66"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="G37:G38"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5543,4 +5599,569 @@
     <oddFooter>&amp;L&amp;"Courier New,Regular"&amp;T&amp;C&amp;"Courier New,Regular"&amp;F&amp;R&amp;"Courier New,Regular"&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9C7273-134B-460F-B2A8-659FD1D8B9B0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6190</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="6">
+        <v>17074</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3" si="0">IF(H3="A+",4,IF(H3="A",4,IF(H3="A-",3.7,IF(H3="B+",3.3,IF(H3="B",3,IF(H3="B-",2.7,IF(H3="C+",2.3,IF(H3="C",2,IF(H3="C-",1.7,IF(H3="D+",1.3,IF(H3="D",1,IF(H3="D-",0.7,IF(H3="F",0,"**")))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6316</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="6">
+        <v>17962</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <f>IF(H4="A+",4,IF(H4="A",4,IF(H4="A-",3.7,IF(H4="B+",3.3,IF(H4="B",3,IF(H4="B-",2.7,IF(H4="C+",2.3,IF(H4="C",2,IF(H4="C-",1.7,IF(H4="D+",1.3,IF(H4="D",1,IF(H4="D-",0.7,IF(H4="F",0,"**")))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="51">
+        <v>6501</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="51">
+        <v>19434</v>
+      </c>
+      <c r="F5" s="51">
+        <v>8</v>
+      </c>
+      <c r="G5" s="51">
+        <v>3</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="54">
+        <f>IF(H5="A+",4,IF(H5="A",4,IF(H5="A-",3.7,IF(H5="B+",3.3,IF(H5="B",3,IF(H5="B-",2.7,IF(H5="C+",2.3,IF(H5="C",2,IF(H5="C-",1.7,IF(H5="D+",1.3,IF(H5="D",1,IF(H5="D-",0.7,IF(H5="F",0,"**")))))))))))))</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="59"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="51">
+        <v>6501</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="51">
+        <v>20769</v>
+      </c>
+      <c r="F7" s="51">
+        <v>11</v>
+      </c>
+      <c r="G7" s="51">
+        <v>3</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="54">
+        <f>IF(H7="A+",4,IF(H7="A",4,IF(H7="A-",3.7,IF(H7="B+",3.3,IF(H7="B",3,IF(H7="B-",2.7,IF(H7="C+",2.3,IF(H7="C",2,IF(H7="C-",1.7,IF(H7="D+",1.3,IF(H7="D",1,IF(H7="D-",0.7,IF(H7="F",0,"**")))))))))))))</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="59"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="51">
+        <v>6501</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="51">
+        <v>21832</v>
+      </c>
+      <c r="F9" s="51">
+        <v>15</v>
+      </c>
+      <c r="G9" s="51">
+        <v>3</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="54">
+        <f>IF(H9="A+",4,IF(H9="A",4,IF(H9="A-",3.7,IF(H9="B+",3.3,IF(H9="B",3,IF(H9="B-",2.7,IF(H9="C+",2.3,IF(H9="C",2,IF(H9="C-",1.7,IF(H9="D+",1.3,IF(H9="D",1,IF(H9="D-",0.7,IF(H9="F",0,"**")))))))))))))</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="59"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51">
+        <v>3</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="54" t="str">
+        <f>IF(H11="A+",4,IF(H11="A",4,IF(H11="A-",3.7,IF(H11="B+",3.3,IF(H11="B",3,IF(H11="B-",2.7,IF(H11="C+",2.3,IF(H11="C",2,IF(H11="C-",1.7,IF(H11="D+",1.3,IF(H11="D",1,IF(H11="D-",0.7,IF(H11="F",0,"**")))))))))))))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="59"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51">
+        <v>3</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="54" t="str">
+        <f>IF(H13="A+",4,IF(H13="A",4,IF(H13="A-",3.7,IF(H13="B+",3.3,IF(H13="B",3,IF(H13="B-",2.7,IF(H13="C+",2.3,IF(H13="C",2,IF(H13="C-",1.7,IF(H13="D+",1.3,IF(H13="D",1,IF(H13="D-",0.7,IF(H13="F",0,"**")))))))))))))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="44"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51">
+        <v>3</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="54" t="str">
+        <f>IF(H15="A+",4,IF(H15="A",4,IF(H15="A-",3.7,IF(H15="B+",3.3,IF(H15="B",3,IF(H15="B-",2.7,IF(H15="C+",2.3,IF(H15="C",2,IF(H15="C-",1.7,IF(H15="D+",1.3,IF(H15="D",1,IF(H15="D-",0.7,IF(H15="F",0,"**")))))))))))))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="47">
+        <v>3</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="54" t="str">
+        <f t="shared" ref="I17:I21" si="1">IF(H17="A+",4,IF(H17="A",4,IF(H17="A-",3.7,IF(H17="B+",3.3,IF(H17="B",3,IF(H17="B-",2.7,IF(H17="C+",2.3,IF(H17="C",2,IF(H17="C-",1.7,IF(H17="D+",1.3,IF(H17="D",1,IF(H17="D-",0.7,IF(H17="F",0,"**")))))))))))))</f>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51">
+        <v>3</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51">
+        <v>3</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="57"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="27">
+        <f>SUM(G1:G22)</f>
+        <v>31</v>
+      </c>
+      <c r="H23" s="27" t="str">
+        <f>IF(I23&gt;3.7,"A+",IF(I23&gt;3.5,"A",IF(I23&gt;3.3,"A-",IF(I23&gt;3,"B+",IF(I23&gt;2.7,"B",IF(I23&gt;2.3,"B-",IF(I23&gt;2,"C+",IF(I23&gt;1.7,"C",IF(I23&gt;1.3,"C-",IF(I23&gt;1,"D+",IF(I23&gt;0.7,"D",IF(I23&gt;0.3,"D-","F"))))))))))))</f>
+        <v>A+</v>
+      </c>
+      <c r="I23" s="38">
+        <f>((1*SUMIFS(I1:I22,G1:G22,1))+(3*SUMIFS(I1:I22,G1:G22,3)))/(SUMIFS(G1:G22,I1:I22,"&lt;&gt;**"))</f>
+        <v>3.7923076923076926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Courier New,Regular"&amp;P of &amp;N&amp;C&amp;"Courier New,Regular"Denny Rual Anderson III&amp;R&amp;"Courier New,Regular"&amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;"Courier New,Regular"&amp;T&amp;C&amp;"Courier New,Regular"&amp;F&amp;R&amp;"Courier New,Regular"&amp;A</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>